--- a/学习目标计划-第一周-niki.xlsx
+++ b/学习目标计划-第一周-niki.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC13A8A-DB5D-4227-8161-39BDC5DFC1B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4991E31A-E1EA-4E1A-B397-2554DF578A7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B78ECE7D-7F77-43D8-849B-A59F34D57DED}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{B78ECE7D-7F77-43D8-849B-A59F34D57DED}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,8 +199,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1）用python实现下面的功能：允许用txt文件定义一个 词典，内容为一系列词的解释 如apple - food，每个词一行，你的python程序启动时加载一个词典，并开始接受命令行输入。当输入词典中的词时输出释义。如输入apple -输出food。词典中没有的词则输出unknown。；
-2）学习与人工智能编程相关文章资料。</t>
+    <t>2）词典的文件可以随时变，即使你的程序在运行过程中。我需要在你的程序不停地前提下往那个词典里加东西，你的程序要能认新加进去的东西。程序需要是长时间运行，一轮输入输出后它会等待下一次输入。</t>
+  </si>
+  <si>
+    <t>3）在每次输出后面加一个你的程序花了多少时间计算出结果的描述。比如输入 apple  输出 food ( 0 ms )  用毫秒计时。未来我们需要追踪你这个游戏的反应有没有在变得太慢。</t>
+  </si>
+  <si>
+    <t>4）同时在启动程序的时候有一个参数控制要不要加这个时间。比如 python PYY2-1.py --timerOn 你的程序就会一直显示这个时间，python PYY2-1.py 就不会显示这个时间。相当于“开发者模式” 和“玩家模式”</t>
+  </si>
+  <si>
+    <t>5）把你能想到的漏洞填一填，比如那个文件里有错，某一行只有光秃秃一个词怎么办？3个词怎么办？词的释义里有空格也很正常？让它跑起来不会一不小心就出来很神奇的结果。如果某一行没对，就忽略这一行，并给出提示哪行格式不对没加载。如果那个文件不存在怎么办？别直接挂掉，应该提示文件不存在请创建文件之类的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）学习与人工智能编程相关文章资料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）注释用英文；
+2）代码整清楚，确保任何一周的结果都是能搞出来最干净的状态；
+3）新增需求，见计划2）~5）；
+4）把跑这个程序的输入输出结果也截个图丢到git里。
+5）加分项：可能的话稍微考虑下以后其他功能点也都可能会需要分别计时让你的计时器可以被用在其他地方的话算是加分项吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）加分项：可能的话稍微考虑下以后其他功能点也都可能会需要分别计时让你的计时器可以被用在其他地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）还有一个，在你的代码目录里运行 git log --graph 你会看到提交历史，现在看上去很乱，有很多次提交，学会用git rebase整理提交历史，把那些乱七八糟的提交记录去掉，只留下一个提交记录
+2）未来一个功能点一个提交记录，比如你加计时器，可以有另一个提交记录，加文件动态加载也是一个单独提交记录
+3）代码相关的所有地方都不要出现中文~~~包括提交记录
+4）在pycharm里你右键代码左边点那个行号的地方点annotations会显示这个代码是谁提交的，点它会出来一整个提交记录，涉及到的所有改动和提交时的信息。这对于维护一个历史悠久而庞大的代码库非常有用，有时候你不知道哪行代码是干嘛的，就可以拿这个找到当时谁出于什么原因加入的这行代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）用python实现下面的功能：允许用txt文件定义一个 词典，内容为一系列词的解释 如apple - food，每个词一行，你的python程序启动时加载一个词典，并开始接受命令行输入。当输入词典中的词时输出释义。如输入apple -输出food。词典中没有的词则输出unknown。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）记录过程中遇到的问题，如何解决，突出自己的思维方式；
+2）下周起后明显语法问题，跑步，一个一公里。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,12 +466,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,6 +492,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -746,28 +815,29 @@
     <col min="5" max="5" width="15" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="3.125" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="58" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="8" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="3.125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="56.75" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="3.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2"/>
@@ -786,7 +856,7 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
@@ -796,134 +866,240 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="5" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="6" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="5" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="F1:F7"/>
-    <mergeCell ref="J1:J7"/>
+    <mergeCell ref="F1:F13"/>
+    <mergeCell ref="J1:J13"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="I3:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
